--- a/课程表/上课.xlsx
+++ b/课程表/上课.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ae4a7522903d23/Desktop/C^M^M/课表/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ae4a7522903d23/Desktop/C-Tech/课程表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F3194DE6-7162-4F09-BD7A-4D167C1183E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63B77581-CC7E-4692-8A49-56EF6E95F42A}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{EE8D902A-573E-4D24-B5D0-62986450FE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20FE0166-7B07-458A-8048-BEEAAA00B8A4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="116">
   <si>
     <t>2023/7.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +396,98 @@
   </si>
   <si>
     <t>2024.7.01(1h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.7.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.7.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.7.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏训2h 支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.8.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.8.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.8.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.9.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.9.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马清然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王景天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.9.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.9.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.9.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4人班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已结束项目:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.10.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.10.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王保金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.10.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.10.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,28 +833,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="12.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -772,575 +865,754 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="X1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="F5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T33" s="1">
+        <v>3500</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1750</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T34" s="1">
+        <v>9600</v>
+      </c>
+      <c r="U34" s="1">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4">
         <v>20</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C38" s="4">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D38" s="2">
         <v>45110</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="T4" s="1">
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="T38" s="1">
         <v>5000</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U38" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3" t="s">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4">
         <v>20</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C41" s="4">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="T7" s="1">
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="T41" s="1">
         <v>1375</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U41" s="1">
         <v>875</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1" t="s">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="T8" s="1">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="T42" s="1">
         <v>7000</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U42" s="1">
         <v>3500</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V42" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="D10" s="1" t="s">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="D44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="V10" s="1" t="s">
+      <c r="F44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="V44" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B46" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C46" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T46" s="1">
         <v>3600</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U46" s="1">
         <v>1440</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1">
+      <c r="V46" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C47" s="1">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T47" s="1">
         <v>3600</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U47" s="1">
         <v>1800</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V47" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C48" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T48" s="1">
         <v>3600</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U48" s="1">
         <v>1800</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V48" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C49" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="1">
+      <c r="I49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T49" s="1">
+        <v>3600</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="1">
         <v>10</v>
       </c>
-      <c r="C51" s="1">
-        <v>5</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T51" s="1">
-        <v>3500</v>
-      </c>
-      <c r="U51" s="1">
-        <v>1750</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="4">
-        <v>30</v>
-      </c>
-      <c r="C52" s="4">
-        <v>30</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T52" s="1">
-        <v>9600</v>
-      </c>
-      <c r="U52" s="1">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="C50" s="1">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A4:A10"/>
+  <mergeCells count="11">
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A38:A44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
